--- a/datasort.xlsx
+++ b/datasort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\Desktop\Games\TENIZ-NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143953EC-E341-41D8-99E4-BEA9DDF20460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9021D84-6DBE-4EEA-A29E-00BDC6AB01A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="2" xr2:uid="{CECB7364-29D1-4265-961F-DD9AF3C51BDB}"/>
   </bookViews>
@@ -50283,8 +50283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125B2C14-AF04-417E-925D-E70A60FC0F51}">
   <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
-      <selection activeCell="X113" sqref="X113"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54022,14 +54022,14 @@
         <v>"novakdjokovic",</v>
       </c>
       <c r="U42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V42" t="s">
         <v>470</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="18"/>
-        <v>"20",</v>
+        <v>"21",</v>
       </c>
       <c r="X42" t="str">
         <f t="shared" si="19"/>
